--- a/INTLINE/data/144/SNDO/Net borrowing requirement.xlsx
+++ b/INTLINE/data/144/SNDO/Net borrowing requirement.xlsx
@@ -15,9 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -152,7 +152,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -161,7 +161,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -176,7 +176,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -540,145 +540,89 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="N1" s="3" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="O1" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="P1" s="3" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="R1" s="3" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="S1" s="3" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="T1" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="U1" s="3" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="V1" s="3" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="W1" s="3" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="X1" s="3" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="Y1" s="3" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="Z1" s="3" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="AA1" s="3" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="AB1" s="3" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="AC1" s="3" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="AD1" s="3" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="AE1" s="3" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="AF1" s="3" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="AG1" s="3" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
+      <c r="F1" s="3">
+        <v>2021</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2020</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2019</v>
+      </c>
+      <c r="I1" s="3">
+        <v>2018</v>
+      </c>
+      <c r="J1" s="3">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="3">
+        <v>2016</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2015</v>
+      </c>
+      <c r="M1" s="3">
+        <v>2014</v>
+      </c>
+      <c r="N1" s="3">
+        <v>2013</v>
+      </c>
+      <c r="O1" s="3">
+        <v>2012</v>
+      </c>
+      <c r="P1" s="3">
+        <v>2011</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>2010</v>
+      </c>
+      <c r="R1" s="3">
+        <v>2009</v>
+      </c>
+      <c r="S1" s="3">
+        <v>2008</v>
+      </c>
+      <c r="T1" s="3">
+        <v>2007</v>
+      </c>
+      <c r="U1" s="3">
+        <v>2006</v>
+      </c>
+      <c r="V1" s="3">
+        <v>2005</v>
+      </c>
+      <c r="W1" s="3">
+        <v>2004</v>
+      </c>
+      <c r="X1" s="3">
+        <v>2003</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>2002</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>2001</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>1999</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>1998</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>1997</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>1996</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>1995</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>1994</v>
       </c>
     </row>
     <row r="2" ht="28.44775390625" customHeight="1">
@@ -696,7 +640,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6">
-        <v>-1287.490734</v>
+        <v>-1287.859837</v>
       </c>
       <c r="G2" s="6">
         <v>18009.617538</v>
@@ -795,7 +739,7 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6">
-        <v>-1287.490734</v>
+        <v>-1287.859837</v>
       </c>
       <c r="G3" s="6">
         <v>18009.617538</v>
@@ -890,7 +834,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6">
-        <v>-1287.490734</v>
+        <v>-1287.859837</v>
       </c>
       <c r="G4" s="6">
         <v>18009.617538</v>
@@ -985,7 +929,7 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11">
-        <v>-1287.490734</v>
+        <v>-1287.859837</v>
       </c>
       <c r="G5" s="11">
         <v>18009.617538</v>
